--- a/t_FightStyle.xlsx
+++ b/t_FightStyle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\Client\excel\towertrunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\Client\excel\tower_20250124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A249F66-826A-48BB-AC42-61170FA4D6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B68A40-1523-44CC-8B18-83237A48581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,35 +705,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="21.75" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="29.125" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
     <col min="17" max="17" width="40" customWidth="1"/>
-    <col min="18" max="18" width="34.625" customWidth="1"/>
-    <col min="19" max="19" width="24.75" customWidth="1"/>
-    <col min="20" max="20" width="32.875" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" customWidth="1"/>
+    <col min="19" max="19" width="24.77734375" customWidth="1"/>
+    <col min="20" max="20" width="32.88671875" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="20.88671875" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="21.25" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,13 +744,13 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -787,31 +783,31 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -861,31 +857,31 @@
         <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -959,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1030,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1047,7 +1043,7 @@
         <v>595</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1077,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1085,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1127,7 +1123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1135,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>6.5</v>
@@ -1177,15 +1173,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1194,7 +1190,7 @@
         <v>560</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1227,18 +1223,18 @@
         <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1247,7 +1243,7 @@
         <v>560</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
